--- a/sugerencias.xlsx
+++ b/sugerencias.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Romi\Universidad\zombiepoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DBCEBC-295B-4F1A-A9ED-545587A09AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD85C8-BA7B-4947-AB30-A84016E2D5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2370" windowWidth="13920" windowHeight="7875" xr2:uid="{5AC1714F-5905-497D-BAD6-D30B259B04B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5AC1714F-5905-497D-BAD6-D30B259B04B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>comodin agregar a tipo</t>
   </si>
@@ -258,13 +259,170 @@
   </si>
   <si>
     <t>necesito mas eventos para el juego</t>
+  </si>
+  <si>
+    <t>mazo</t>
+  </si>
+  <si>
+    <t>repartir cartas retorna una lista de listas con las cartas repartidas</t>
+  </si>
+  <si>
+    <t>Mazo</t>
+  </si>
+  <si>
+    <t>repartir</t>
+  </si>
+  <si>
+    <t>cargar</t>
+  </si>
+  <si>
+    <t>mezclar</t>
+  </si>
+  <si>
+    <r>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD9E8F7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Carta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD9E8F7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFD9E8F7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cartaSiguiente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD9E8F7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE6E6FA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD9E8F7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> mano</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE6E6FA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD9E8F7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFD9E8F7"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>indiceMano</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFF9FAF4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFE6E6FA"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +477,28 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFF9FAF4"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFD9E8F7"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -341,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,6 +532,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,35 +850,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333188A4-0E3C-43FC-A3B6-075AF9729356}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -702,17 +886,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -723,15 +907,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -739,7 +929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -747,7 +937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -755,12 +945,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -773,6 +963,55 @@
       <c r="E16" t="s">
         <v>22</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36EED3D-1888-48A1-8819-8A3BFC0EFCF6}">
+  <dimension ref="F2:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
